--- a/SPAN/SPAN_modalities.xlsx
+++ b/SPAN/SPAN_modalities.xlsx
@@ -553,10 +553,10 @@
         <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="D5" t="n">
-        <v>22.76190476190476</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="E5" t="n">
         <v>21</v>
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>

--- a/SPAN/SPAN_modalities.xlsx
+++ b/SPAN/SPAN_modalities.xlsx
@@ -553,10 +553,10 @@
         <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D5" t="n">
-        <v>22.33333333333333</v>
+        <v>22.28571428571428</v>
       </c>
       <c r="E5" t="n">
         <v>21</v>

--- a/SPAN/SPAN_modalities.xlsx
+++ b/SPAN/SPAN_modalities.xlsx
@@ -514,74 +514,74 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Modality</t>
+          <t>Room</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hybrid Course</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>28.33333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Online Course</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>468</v>
+        <v>231</v>
       </c>
       <c r="D5" t="n">
-        <v>22.28571428571428</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
         <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>615</v>
+        <v>575</v>
       </c>
       <c r="G5" t="n">
-        <v>29.28571428571428</v>
+        <v>27.38095238095238</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Remote Course</t>
+          <t>REMOTE</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>20.5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>

--- a/SPAN/SPAN_modalities.xlsx
+++ b/SPAN/SPAN_modalities.xlsx
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>11.33333333333333</v>
+        <v>8.75</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="G4" t="n">
-        <v>28.33333333333333</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="5">
@@ -553,10 +553,10 @@
         <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>12.14285714285714</v>
       </c>
       <c r="E5" t="n">
         <v>21</v>
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
